--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1788.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1788.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.196677389503996</v>
+        <v>0.6961823105812073</v>
       </c>
       <c r="B1">
-        <v>2.353885467807479</v>
+        <v>1.327176451683044</v>
       </c>
       <c r="C1">
-        <v>5.485987388395461</v>
+        <v>3.717926502227783</v>
       </c>
       <c r="D1">
-        <v>2.327321344665723</v>
+        <v>2.666195869445801</v>
       </c>
       <c r="E1">
-        <v>1.083171475094782</v>
+        <v>0.5914642214775085</v>
       </c>
     </row>
   </sheetData>
